--- a/漢字テスト-rut gon.xlsx
+++ b/漢字テスト-rut gon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DT\kanji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE8EE3-B16C-4EE4-A4F8-091E53B54703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFD311-531D-4F71-93ED-E84108A2E016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="933">
   <si>
     <t>漢字</t>
   </si>
@@ -2536,9 +2536,6 @@
     <t>hoa</t>
   </si>
   <si>
-    <t>hành vật</t>
-  </si>
-  <si>
     <t>nimotsu</t>
   </si>
   <si>
@@ -2785,9 +2782,6 @@
     <t>netsu</t>
   </si>
   <si>
-    <t>sốt</t>
-  </si>
-  <si>
     <t>zannen</t>
   </si>
   <si>
@@ -2834,6 +2828,9 @@
   </si>
   <si>
     <t>thiệt</t>
+  </si>
+  <si>
+    <t>hà vật</t>
   </si>
 </sst>
 </file>
@@ -3135,9 +3132,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3201,6 +3195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3495,12 +3492,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4527,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A120" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -4538,12 +4535,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -4703,17 +4700,17 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -4787,17 +4784,17 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>810</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -4823,17 +4820,17 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>812</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -4847,17 +4844,17 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -4883,17 +4880,17 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="30" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -4919,51 +4916,51 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>898</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>899</v>
       </c>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>901</v>
-      </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -4991,17 +4988,17 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>904</v>
-      </c>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -5015,29 +5012,29 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>818</v>
       </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>819</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -5051,17 +5048,17 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -5087,17 +5084,17 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>834</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="C47" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
@@ -5111,17 +5108,17 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -5207,17 +5204,17 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>905</v>
-      </c>
-      <c r="C57" s="31" t="s">
+      <c r="B57" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -5255,17 +5252,17 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+    <row r="61" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
@@ -5291,17 +5288,17 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="C64" s="31" t="s">
+      <c r="B64" s="30" t="s">
         <v>840</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="C64" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -5363,17 +5360,17 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+    <row r="70" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="D70" s="25"/>
+      <c r="C70" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
@@ -5395,33 +5392,33 @@
         <v>710</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="28" t="s">
-        <v>860</v>
-      </c>
-      <c r="C74" s="28" t="s">
+      <c r="B74" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="D74" s="28"/>
+      <c r="C74" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
@@ -5512,48 +5509,48 @@
         <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="D85" s="25"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
@@ -5579,65 +5576,65 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="C88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="D88" s="31"/>
-    </row>
-    <row r="89" spans="1:4" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="C88" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="D89" s="28"/>
-    </row>
-    <row r="90" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="D90" s="22"/>
-    </row>
-    <row r="91" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B91" s="19" t="s">
+      <c r="C92" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="D91" s="19"/>
-    </row>
-    <row r="92" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="D92" s="22"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
@@ -5651,101 +5648,101 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
+    <row r="94" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B95" s="22" t="s">
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>868</v>
-      </c>
-      <c r="D95" s="22"/>
-    </row>
-    <row r="96" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>737</v>
-      </c>
-      <c r="D96" s="31"/>
-    </row>
-    <row r="97" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B97" s="31" t="s">
+      <c r="C97" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="D97" s="31"/>
-    </row>
-    <row r="98" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="31" t="s">
+      <c r="C98" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="D98" s="31"/>
-    </row>
-    <row r="99" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="31" t="s">
+      <c r="C99" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="D99" s="31"/>
-    </row>
-    <row r="100" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" s="19" t="s">
+      <c r="C100" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="D100" s="18"/>
+    </row>
+    <row r="101" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>879</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>878</v>
-      </c>
-      <c r="D101" s="19"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
@@ -5764,10 +5761,10 @@
         <v>217</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="D103" s="1"/>
     </row>
@@ -5807,87 +5804,87 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
+    <row r="107" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>880</v>
       </c>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" s="31" t="s">
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="C108" s="31" t="s">
-        <v>881</v>
-      </c>
-      <c r="D108" s="31"/>
-    </row>
-    <row r="109" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B109" s="31" t="s">
+      <c r="C109" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="D109" s="30"/>
+    </row>
+    <row r="110" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>853</v>
-      </c>
-      <c r="D109" s="31"/>
-    </row>
-    <row r="110" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="31" t="s">
+      <c r="C110" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="D110" s="31"/>
-    </row>
-    <row r="111" spans="1:4" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="C111" s="31" t="s">
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="D111" s="31"/>
-    </row>
-    <row r="112" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="22" t="s">
+      <c r="C112" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>888</v>
-      </c>
-      <c r="D112" s="22"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D113" s="1"/>
     </row>
@@ -5927,17 +5924,17 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
+    <row r="117" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>891</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="D117" s="22"/>
+      <c r="D117" s="21"/>
     </row>
     <row r="118" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
@@ -5956,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D119" s="1"/>
     </row>
@@ -6040,7 +6037,7 @@
         <v>239</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>796</v>
@@ -6071,27 +6068,27 @@
       </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+    <row r="129" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>895</v>
-      </c>
-      <c r="C129" s="22" t="s">
+      <c r="B129" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="D129" s="22"/>
+      <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D130" s="1"/>
     </row>
@@ -6100,72 +6097,72 @@
         <v>244</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="D132" s="24"/>
+    </row>
+    <row r="133" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="D133" s="24"/>
+    </row>
+    <row r="134" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="27" t="s">
         <v>853</v>
       </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>851</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="D132" s="25"/>
-    </row>
-    <row r="133" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>851</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>850</v>
-      </c>
-      <c r="D133" s="25"/>
-    </row>
-    <row r="134" spans="1:4" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B134" s="28" t="s">
+      <c r="C134" s="27" t="s">
         <v>854</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="C135" s="27" t="s">
         <v>855</v>
       </c>
-      <c r="D134" s="28"/>
-    </row>
-    <row r="135" spans="1:4" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="D135" s="28"/>
-    </row>
-    <row r="136" spans="1:4" s="38" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36" t="s">
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="C136" s="37" t="s">
+      <c r="C136" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="D136" s="37"/>
+      <c r="D136" s="36"/>
     </row>
     <row r="137" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -6184,180 +6181,180 @@
         <v>251</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="36" t="s">
         <v>909</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" s="38" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B139" s="37" t="s">
+      <c r="C139" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="C139" s="37" t="s">
+      <c r="D139" s="36"/>
+    </row>
+    <row r="140" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="36" t="s">
         <v>911</v>
       </c>
-      <c r="D139" s="37"/>
-    </row>
-    <row r="140" spans="1:4" s="38" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="B140" s="37" t="s">
+      <c r="C140" s="36" t="s">
         <v>912</v>
       </c>
-      <c r="C140" s="37" t="s">
+      <c r="D140" s="36"/>
+    </row>
+    <row r="141" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="D141" s="39"/>
+    </row>
+    <row r="142" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="39" t="s">
         <v>913</v>
       </c>
-      <c r="D140" s="37"/>
-    </row>
-    <row r="141" spans="1:4" s="41" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" s="40" t="s">
+      <c r="C142" s="39" t="s">
+        <v>914</v>
+      </c>
+      <c r="D142" s="39"/>
+    </row>
+    <row r="143" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="39" t="s">
         <v>916</v>
       </c>
-      <c r="C141" s="40" t="s">
+      <c r="C143" s="39" t="s">
         <v>917</v>
       </c>
-      <c r="D141" s="40"/>
-    </row>
-    <row r="142" spans="1:4" s="41" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>914</v>
-      </c>
-      <c r="C142" s="40" t="s">
-        <v>915</v>
-      </c>
-      <c r="D142" s="40"/>
-    </row>
-    <row r="143" spans="1:4" s="41" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="40" t="s">
+      <c r="D143" s="39"/>
+    </row>
+    <row r="144" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="39" t="s">
         <v>918</v>
       </c>
-      <c r="C143" s="40" t="s">
+      <c r="C144" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="D143" s="40"/>
-    </row>
-    <row r="144" spans="1:4" s="41" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B144" s="40" t="s">
+      <c r="D144" s="39"/>
+    </row>
+    <row r="145" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>921</v>
+      </c>
+      <c r="C145" s="39" t="s">
         <v>920</v>
       </c>
-      <c r="C144" s="40" t="s">
-        <v>921</v>
-      </c>
-      <c r="D144" s="40"/>
-    </row>
-    <row r="145" spans="1:4" s="41" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="B145" s="40" t="s">
+      <c r="D145" s="39"/>
+    </row>
+    <row r="146" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="C146" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="C145" s="40" t="s">
-        <v>922</v>
-      </c>
-      <c r="D145" s="40"/>
-    </row>
-    <row r="146" spans="1:4" s="35" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" s="34" t="s">
+      <c r="D146" s="33"/>
+    </row>
+    <row r="147" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C147" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="D146" s="34"/>
-    </row>
-    <row r="147" spans="1:4" s="35" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="34" t="s">
+      <c r="D147" s="33"/>
+    </row>
+    <row r="148" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>930</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="D148" s="33"/>
+    </row>
+    <row r="149" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="D149" s="33"/>
+    </row>
+    <row r="150" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" s="33" t="s">
         <v>926</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C150" s="33" t="s">
         <v>927</v>
       </c>
-      <c r="D147" s="34"/>
-    </row>
-    <row r="148" spans="1:4" s="35" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>932</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>933</v>
-      </c>
-      <c r="D148" s="34"/>
-    </row>
-    <row r="149" spans="1:4" s="35" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>931</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>930</v>
-      </c>
-      <c r="D149" s="34"/>
-    </row>
-    <row r="150" spans="1:4" s="35" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B150" s="34" t="s">
-        <v>928</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>929</v>
-      </c>
-      <c r="D150" s="34"/>
-    </row>
-    <row r="151" spans="1:4" s="44" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="42" t="s">
+      <c r="D150" s="33"/>
+    </row>
+    <row r="151" spans="1:4" s="43" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="42" t="s">
         <v>828</v>
       </c>
-      <c r="C151" s="43" t="s">
+      <c r="C151" s="42" t="s">
         <v>772</v>
       </c>
-      <c r="D151" s="43"/>
-    </row>
-    <row r="152" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+      <c r="D151" s="42"/>
+    </row>
+    <row r="152" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="D152" s="25"/>
+      <c r="D152" s="24"/>
     </row>
     <row r="153" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
@@ -6479,17 +6476,17 @@
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="24" t="s">
+    <row r="163" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="B163" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="D163" s="25"/>
+      <c r="D163" s="24"/>
     </row>
     <row r="164" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
@@ -6503,17 +6500,17 @@
       </c>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+    <row r="165" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="24" t="s">
         <v>824</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="24" t="s">
         <v>823</v>
       </c>
-      <c r="D165" s="25"/>
+      <c r="D165" s="24"/>
     </row>
     <row r="166" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
@@ -6583,17 +6580,17 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" s="26" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="24" t="s">
+    <row r="174" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="24" t="s">
         <v>747</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="24" t="s">
         <v>822</v>
       </c>
-      <c r="D174" s="25"/>
+      <c r="D174" s="24"/>
     </row>
     <row r="175" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
@@ -6631,12 +6628,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -7708,12 +7705,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -8753,12 +8750,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">

--- a/漢字テスト-rut gon.xlsx
+++ b/漢字テスト-rut gon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DT\kanji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kanji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFD311-531D-4F71-93ED-E84108A2E016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA5513-2346-4EBB-B374-37364A6A3899}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-5" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="937">
   <si>
     <t>漢字</t>
   </si>
@@ -541,9 +541,6 @@
     <t>奥さん</t>
   </si>
   <si>
-    <t>主人</t>
-  </si>
-  <si>
     <t>旦那</t>
   </si>
   <si>
@@ -1990,9 +1987,6 @@
     <t>mizu</t>
   </si>
   <si>
-    <t>nước</t>
-  </si>
-  <si>
     <t>lãnh</t>
   </si>
   <si>
@@ -2092,9 +2086,6 @@
     <t>vợ m</t>
   </si>
   <si>
-    <t>chủ nhân</t>
-  </si>
-  <si>
     <t>danna</t>
   </si>
   <si>
@@ -2746,9 +2737,6 @@
     <t>oshiemasu</t>
   </si>
   <si>
-    <t>shujin</t>
-  </si>
-  <si>
     <t>sakura</t>
   </si>
   <si>
@@ -2831,6 +2819,30 @@
   </si>
   <si>
     <t>hà vật</t>
+  </si>
+  <si>
+    <t>thủy</t>
+  </si>
+  <si>
+    <t>cho vay</t>
+  </si>
+  <si>
+    <t>áo</t>
+  </si>
+  <si>
+    <t>chồng tao</t>
+  </si>
+  <si>
+    <t>主人・夫</t>
+  </si>
+  <si>
+    <t>chủ nhân・phu</t>
+  </si>
+  <si>
+    <t>shujin/ otto</t>
+  </si>
+  <si>
+    <t>cháu</t>
   </si>
 </sst>
 </file>
@@ -3493,7 +3505,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -4524,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A157" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -4536,7 +4548,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -4561,10 +4573,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -4573,10 +4585,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -4585,10 +4597,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -4597,10 +4609,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -4609,10 +4621,10 @@
         <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -4621,10 +4633,10 @@
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -4633,10 +4645,10 @@
         <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -4645,10 +4657,10 @@
         <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -4657,10 +4669,10 @@
         <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -4669,10 +4681,10 @@
         <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -4681,10 +4693,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -4693,10 +4705,10 @@
         <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -4705,10 +4717,10 @@
         <v>129</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D15" s="24"/>
     </row>
@@ -4717,10 +4729,10 @@
         <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -4729,10 +4741,10 @@
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -4741,10 +4753,10 @@
         <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -4753,10 +4765,10 @@
         <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -4765,10 +4777,10 @@
         <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -4777,10 +4789,10 @@
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -4789,10 +4801,10 @@
         <v>136</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4801,10 +4813,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -4813,10 +4825,10 @@
         <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -4825,10 +4837,10 @@
         <v>139</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D25" s="24"/>
     </row>
@@ -4837,10 +4849,10 @@
         <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>652</v>
+        <v>929</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -4849,10 +4861,10 @@
         <v>141</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D27" s="24"/>
     </row>
@@ -4861,10 +4873,10 @@
         <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -4873,10 +4885,10 @@
         <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -4885,10 +4897,10 @@
         <v>144</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D30" s="24"/>
     </row>
@@ -4897,10 +4909,10 @@
         <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -4909,10 +4921,10 @@
         <v>146</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -4921,10 +4933,10 @@
         <v>147</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D33" s="24"/>
     </row>
@@ -4933,10 +4945,10 @@
         <v>148</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D34" s="30"/>
     </row>
@@ -4945,10 +4957,10 @@
         <v>149</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D35" s="30"/>
     </row>
@@ -4957,10 +4969,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -4969,10 +4981,10 @@
         <v>150</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -4981,10 +4993,10 @@
         <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -4993,10 +5005,10 @@
         <v>152</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D39" s="30"/>
     </row>
@@ -5005,10 +5017,10 @@
         <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -5017,22 +5029,24 @@
         <v>154</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="D41" s="24"/>
+        <v>815</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="42" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>155</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D42" s="24"/>
     </row>
@@ -5041,10 +5055,10 @@
         <v>156</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -5053,10 +5067,10 @@
         <v>157</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D44" s="30"/>
     </row>
@@ -5065,10 +5079,10 @@
         <v>158</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -5077,10 +5091,10 @@
         <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -5089,10 +5103,10 @@
         <v>160</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D47" s="24"/>
     </row>
@@ -5101,10 +5115,10 @@
         <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -5113,10 +5127,10 @@
         <v>52</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D49" s="24"/>
     </row>
@@ -5125,10 +5139,10 @@
         <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -5137,10 +5151,10 @@
         <v>163</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -5149,10 +5163,10 @@
         <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D52" s="1"/>
     </row>
@@ -5161,10 +5175,10 @@
         <v>165</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D53" s="1"/>
     </row>
@@ -5173,10 +5187,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D54" s="1"/>
     </row>
@@ -5185,10 +5199,10 @@
         <v>167</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D55" s="1"/>
     </row>
@@ -5197,754 +5211,760 @@
         <v>168</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>931</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="57" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>169</v>
+        <v>933</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="D57" s="30"/>
+        <v>934</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="D64" s="30"/>
+        <v>836</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>861</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>864</v>
       </c>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D117" s="21"/>
     </row>
     <row r="118" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D118" s="1"/>
     </row>
@@ -5953,580 +5973,580 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" s="22" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D132" s="24"/>
     </row>
     <row r="133" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D133" s="24"/>
     </row>
     <row r="134" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D134" s="27"/>
     </row>
     <row r="135" spans="1:4" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D135" s="27"/>
     </row>
     <row r="136" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D136" s="36"/>
     </row>
     <row r="137" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D139" s="36"/>
     </row>
     <row r="140" spans="1:4" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D140" s="36"/>
     </row>
     <row r="141" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B141" s="39" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="39"/>
     </row>
     <row r="142" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D142" s="39"/>
     </row>
     <row r="143" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D143" s="39"/>
     </row>
     <row r="144" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D144" s="39"/>
     </row>
     <row r="145" spans="1:4" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B145" s="39" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D145" s="39"/>
     </row>
     <row r="146" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D146" s="33"/>
     </row>
     <row r="147" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D147" s="33"/>
     </row>
     <row r="148" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D148" s="33"/>
     </row>
     <row r="149" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D149" s="33"/>
     </row>
     <row r="150" spans="1:4" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D150" s="33"/>
     </row>
     <row r="151" spans="1:4" s="43" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B151" s="42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D151" s="42"/>
     </row>
     <row r="152" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D152" s="24"/>
     </row>
     <row r="153" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D163" s="24"/>
     </row>
     <row r="164" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D165" s="24"/>
     </row>
     <row r="166" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6534,7 +6554,7 @@
     </row>
     <row r="168" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6542,7 +6562,7 @@
     </row>
     <row r="169" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6550,7 +6570,7 @@
     </row>
     <row r="170" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6558,7 +6578,7 @@
     </row>
     <row r="171" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6566,7 +6586,7 @@
     </row>
     <row r="172" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6574,7 +6594,7 @@
     </row>
     <row r="173" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6582,25 +6602,25 @@
     </row>
     <row r="174" spans="1:4" s="25" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D174" s="24"/>
     </row>
     <row r="175" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D175" s="1"/>
     </row>
@@ -6617,8 +6637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A134" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -6629,7 +6649,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6651,7 +6671,7 @@
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6659,7 +6679,7 @@
     </row>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6667,7 +6687,7 @@
     </row>
     <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6675,7 +6695,7 @@
     </row>
     <row r="6" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6683,7 +6703,7 @@
     </row>
     <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6691,7 +6711,7 @@
     </row>
     <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6699,7 +6719,7 @@
     </row>
     <row r="9" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6707,7 +6727,7 @@
     </row>
     <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6715,7 +6735,7 @@
     </row>
     <row r="11" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6723,7 +6743,7 @@
     </row>
     <row r="12" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6731,7 +6751,7 @@
     </row>
     <row r="13" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6739,7 +6759,7 @@
     </row>
     <row r="14" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6747,7 +6767,7 @@
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6755,7 +6775,7 @@
     </row>
     <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6763,7 +6783,7 @@
     </row>
     <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6771,7 +6791,7 @@
     </row>
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6779,7 +6799,7 @@
     </row>
     <row r="19" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6787,7 +6807,7 @@
     </row>
     <row r="20" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6795,7 +6815,7 @@
     </row>
     <row r="21" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6803,7 +6823,7 @@
     </row>
     <row r="22" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6811,7 +6831,7 @@
     </row>
     <row r="23" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6819,7 +6839,7 @@
     </row>
     <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6827,7 +6847,7 @@
     </row>
     <row r="25" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6835,7 +6855,7 @@
     </row>
     <row r="26" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6843,7 +6863,7 @@
     </row>
     <row r="27" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6851,7 +6871,7 @@
     </row>
     <row r="28" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6859,7 +6879,7 @@
     </row>
     <row r="29" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6867,7 +6887,7 @@
     </row>
     <row r="30" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6875,7 +6895,7 @@
     </row>
     <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6883,7 +6903,7 @@
     </row>
     <row r="32" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6891,7 +6911,7 @@
     </row>
     <row r="33" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6899,7 +6919,7 @@
     </row>
     <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6907,7 +6927,7 @@
     </row>
     <row r="35" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6915,7 +6935,7 @@
     </row>
     <row r="36" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6923,7 +6943,7 @@
     </row>
     <row r="37" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6931,7 +6951,7 @@
     </row>
     <row r="38" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6939,7 +6959,7 @@
     </row>
     <row r="39" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6947,7 +6967,7 @@
     </row>
     <row r="40" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6955,7 +6975,7 @@
     </row>
     <row r="41" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6963,7 +6983,7 @@
     </row>
     <row r="42" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6971,7 +6991,7 @@
     </row>
     <row r="43" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6979,7 +6999,7 @@
     </row>
     <row r="44" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6987,7 +7007,7 @@
     </row>
     <row r="45" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6995,7 +7015,7 @@
     </row>
     <row r="46" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7003,7 +7023,7 @@
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7011,7 +7031,7 @@
     </row>
     <row r="48" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7019,7 +7039,7 @@
     </row>
     <row r="49" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -7035,7 +7055,7 @@
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -7043,7 +7063,7 @@
     </row>
     <row r="52" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7051,7 +7071,7 @@
     </row>
     <row r="53" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7059,7 +7079,7 @@
     </row>
     <row r="54" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -7067,7 +7087,7 @@
     </row>
     <row r="55" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7075,7 +7095,7 @@
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7083,7 +7103,7 @@
     </row>
     <row r="57" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7091,7 +7111,7 @@
     </row>
     <row r="58" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -7099,7 +7119,7 @@
     </row>
     <row r="59" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -7107,7 +7127,7 @@
     </row>
     <row r="60" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7115,7 +7135,7 @@
     </row>
     <row r="61" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7123,7 +7143,7 @@
     </row>
     <row r="62" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -7131,7 +7151,7 @@
     </row>
     <row r="63" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -7139,7 +7159,7 @@
     </row>
     <row r="64" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7147,7 +7167,7 @@
     </row>
     <row r="65" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -7155,7 +7175,7 @@
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -7163,7 +7183,7 @@
     </row>
     <row r="67" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -7171,7 +7191,7 @@
     </row>
     <row r="68" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -7179,7 +7199,7 @@
     </row>
     <row r="69" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -7187,7 +7207,7 @@
     </row>
     <row r="70" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7195,7 +7215,7 @@
     </row>
     <row r="71" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7203,7 +7223,7 @@
     </row>
     <row r="72" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7211,7 +7231,7 @@
     </row>
     <row r="73" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7219,7 +7239,7 @@
     </row>
     <row r="74" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7227,7 +7247,7 @@
     </row>
     <row r="75" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -7235,7 +7255,7 @@
     </row>
     <row r="76" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -7243,7 +7263,7 @@
     </row>
     <row r="77" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -7251,7 +7271,7 @@
     </row>
     <row r="78" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -7267,7 +7287,7 @@
     </row>
     <row r="80" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -7275,7 +7295,7 @@
     </row>
     <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -7283,7 +7303,7 @@
     </row>
     <row r="82" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7291,7 +7311,7 @@
     </row>
     <row r="83" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7299,7 +7319,7 @@
     </row>
     <row r="84" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7315,7 +7335,7 @@
     </row>
     <row r="86" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7323,7 +7343,7 @@
     </row>
     <row r="87" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7331,7 +7351,7 @@
     </row>
     <row r="88" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7339,7 +7359,7 @@
     </row>
     <row r="89" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7347,7 +7367,7 @@
     </row>
     <row r="90" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7355,7 +7375,7 @@
     </row>
     <row r="91" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7363,7 +7383,7 @@
     </row>
     <row r="92" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7371,7 +7391,7 @@
     </row>
     <row r="93" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7379,7 +7399,7 @@
     </row>
     <row r="94" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7387,7 +7407,7 @@
     </row>
     <row r="95" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7395,7 +7415,7 @@
     </row>
     <row r="96" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7403,7 +7423,7 @@
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7411,7 +7431,7 @@
     </row>
     <row r="98" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7419,7 +7439,7 @@
     </row>
     <row r="99" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7427,7 +7447,7 @@
     </row>
     <row r="100" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7435,7 +7455,7 @@
     </row>
     <row r="101" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7443,7 +7463,7 @@
     </row>
     <row r="102" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7451,7 +7471,7 @@
     </row>
     <row r="103" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7459,7 +7479,7 @@
     </row>
     <row r="104" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7467,7 +7487,7 @@
     </row>
     <row r="105" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7475,7 +7495,7 @@
     </row>
     <row r="106" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7483,7 +7503,7 @@
     </row>
     <row r="107" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7491,7 +7511,7 @@
     </row>
     <row r="108" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7499,7 +7519,7 @@
     </row>
     <row r="109" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7507,7 +7527,7 @@
     </row>
     <row r="110" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7515,7 +7535,7 @@
     </row>
     <row r="111" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7523,7 +7543,7 @@
     </row>
     <row r="112" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7531,7 +7551,7 @@
     </row>
     <row r="113" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7539,7 +7559,7 @@
     </row>
     <row r="114" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7547,7 +7567,7 @@
     </row>
     <row r="115" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7555,7 +7575,7 @@
     </row>
     <row r="116" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7563,7 +7583,7 @@
     </row>
     <row r="117" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7571,7 +7591,7 @@
     </row>
     <row r="118" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7579,7 +7599,7 @@
     </row>
     <row r="119" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7587,7 +7607,7 @@
     </row>
     <row r="120" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7595,7 +7615,7 @@
     </row>
     <row r="121" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7603,7 +7623,7 @@
     </row>
     <row r="122" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7611,7 +7631,7 @@
     </row>
     <row r="123" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7619,7 +7639,7 @@
     </row>
     <row r="124" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7627,7 +7647,7 @@
     </row>
     <row r="125" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7635,7 +7655,7 @@
     </row>
     <row r="126" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7643,7 +7663,7 @@
     </row>
     <row r="127" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7651,7 +7671,7 @@
     </row>
     <row r="128" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7659,7 +7679,7 @@
     </row>
     <row r="129" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7667,7 +7687,7 @@
     </row>
     <row r="130" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7675,7 +7695,7 @@
     </row>
     <row r="131" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7706,7 +7726,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7728,7 +7748,7 @@
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7736,7 +7756,7 @@
     </row>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7744,7 +7764,7 @@
     </row>
     <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7752,7 +7772,7 @@
     </row>
     <row r="6" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7760,7 +7780,7 @@
     </row>
     <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7768,7 +7788,7 @@
     </row>
     <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7776,7 +7796,7 @@
     </row>
     <row r="9" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7784,7 +7804,7 @@
     </row>
     <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7792,7 +7812,7 @@
     </row>
     <row r="11" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7800,7 +7820,7 @@
     </row>
     <row r="12" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7808,7 +7828,7 @@
     </row>
     <row r="13" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7816,7 +7836,7 @@
     </row>
     <row r="14" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7824,7 +7844,7 @@
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7832,7 +7852,7 @@
     </row>
     <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7840,7 +7860,7 @@
     </row>
     <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7848,7 +7868,7 @@
     </row>
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7856,7 +7876,7 @@
     </row>
     <row r="19" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7864,7 +7884,7 @@
     </row>
     <row r="20" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7872,7 +7892,7 @@
     </row>
     <row r="21" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7880,7 +7900,7 @@
     </row>
     <row r="22" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7888,7 +7908,7 @@
     </row>
     <row r="23" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7896,7 +7916,7 @@
     </row>
     <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7904,7 +7924,7 @@
     </row>
     <row r="25" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7912,7 +7932,7 @@
     </row>
     <row r="26" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7920,7 +7940,7 @@
     </row>
     <row r="27" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7928,7 +7948,7 @@
     </row>
     <row r="28" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7936,7 +7956,7 @@
     </row>
     <row r="29" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7944,7 +7964,7 @@
     </row>
     <row r="30" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7952,7 +7972,7 @@
     </row>
     <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7960,7 +7980,7 @@
     </row>
     <row r="32" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7968,7 +7988,7 @@
     </row>
     <row r="33" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -7976,7 +7996,7 @@
     </row>
     <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7984,7 +8004,7 @@
     </row>
     <row r="35" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7992,7 +8012,7 @@
     </row>
     <row r="36" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8000,7 +8020,7 @@
     </row>
     <row r="37" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8008,7 +8028,7 @@
     </row>
     <row r="38" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8016,7 +8036,7 @@
     </row>
     <row r="39" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8024,7 +8044,7 @@
     </row>
     <row r="40" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8032,7 +8052,7 @@
     </row>
     <row r="41" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8040,7 +8060,7 @@
     </row>
     <row r="42" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8048,7 +8068,7 @@
     </row>
     <row r="43" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8056,7 +8076,7 @@
     </row>
     <row r="44" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8064,7 +8084,7 @@
     </row>
     <row r="45" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8072,7 +8092,7 @@
     </row>
     <row r="46" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8080,7 +8100,7 @@
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8088,7 +8108,7 @@
     </row>
     <row r="48" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -8096,7 +8116,7 @@
     </row>
     <row r="49" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8104,7 +8124,7 @@
     </row>
     <row r="50" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8112,7 +8132,7 @@
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -8120,7 +8140,7 @@
     </row>
     <row r="52" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8136,7 +8156,7 @@
     </row>
     <row r="54" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -8144,7 +8164,7 @@
     </row>
     <row r="55" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -8152,7 +8172,7 @@
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8160,7 +8180,7 @@
     </row>
     <row r="57" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -8168,7 +8188,7 @@
     </row>
     <row r="58" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -8176,7 +8196,7 @@
     </row>
     <row r="59" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -8184,7 +8204,7 @@
     </row>
     <row r="60" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -8192,7 +8212,7 @@
     </row>
     <row r="61" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -8200,7 +8220,7 @@
     </row>
     <row r="62" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8208,7 +8228,7 @@
     </row>
     <row r="63" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -8216,7 +8236,7 @@
     </row>
     <row r="64" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -8224,7 +8244,7 @@
     </row>
     <row r="65" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8232,7 +8252,7 @@
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8240,7 +8260,7 @@
     </row>
     <row r="67" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8248,7 +8268,7 @@
     </row>
     <row r="68" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8256,7 +8276,7 @@
     </row>
     <row r="69" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8264,7 +8284,7 @@
     </row>
     <row r="70" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8272,7 +8292,7 @@
     </row>
     <row r="71" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -8280,7 +8300,7 @@
     </row>
     <row r="72" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8288,7 +8308,7 @@
     </row>
     <row r="73" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -8296,7 +8316,7 @@
     </row>
     <row r="74" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -8304,7 +8324,7 @@
     </row>
     <row r="75" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8312,7 +8332,7 @@
     </row>
     <row r="76" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8320,7 +8340,7 @@
     </row>
     <row r="77" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8328,7 +8348,7 @@
     </row>
     <row r="78" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8336,7 +8356,7 @@
     </row>
     <row r="79" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8344,7 +8364,7 @@
     </row>
     <row r="80" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8352,7 +8372,7 @@
     </row>
     <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8360,7 +8380,7 @@
     </row>
     <row r="82" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8368,7 +8388,7 @@
     </row>
     <row r="83" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8376,7 +8396,7 @@
     </row>
     <row r="84" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8384,7 +8404,7 @@
     </row>
     <row r="85" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8392,7 +8412,7 @@
     </row>
     <row r="86" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8400,7 +8420,7 @@
     </row>
     <row r="87" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8408,7 +8428,7 @@
     </row>
     <row r="88" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8416,7 +8436,7 @@
     </row>
     <row r="89" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8424,7 +8444,7 @@
     </row>
     <row r="90" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8432,7 +8452,7 @@
     </row>
     <row r="91" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8440,7 +8460,7 @@
     </row>
     <row r="92" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8448,7 +8468,7 @@
     </row>
     <row r="93" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8456,7 +8476,7 @@
     </row>
     <row r="94" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8464,7 +8484,7 @@
     </row>
     <row r="95" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -8472,7 +8492,7 @@
     </row>
     <row r="96" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -8480,7 +8500,7 @@
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -8488,7 +8508,7 @@
     </row>
     <row r="98" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8496,7 +8516,7 @@
     </row>
     <row r="99" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8504,7 +8524,7 @@
     </row>
     <row r="100" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8512,7 +8532,7 @@
     </row>
     <row r="101" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8520,7 +8540,7 @@
     </row>
     <row r="102" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8528,7 +8548,7 @@
     </row>
     <row r="103" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8536,7 +8556,7 @@
     </row>
     <row r="104" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8544,7 +8564,7 @@
     </row>
     <row r="105" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8552,7 +8572,7 @@
     </row>
     <row r="106" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8560,7 +8580,7 @@
     </row>
     <row r="107" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8568,7 +8588,7 @@
     </row>
     <row r="108" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8576,7 +8596,7 @@
     </row>
     <row r="109" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8584,7 +8604,7 @@
     </row>
     <row r="110" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8592,7 +8612,7 @@
     </row>
     <row r="111" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8600,7 +8620,7 @@
     </row>
     <row r="112" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8608,7 +8628,7 @@
     </row>
     <row r="113" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8616,7 +8636,7 @@
     </row>
     <row r="114" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8624,7 +8644,7 @@
     </row>
     <row r="115" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8632,7 +8652,7 @@
     </row>
     <row r="116" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8640,7 +8660,7 @@
     </row>
     <row r="117" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8648,7 +8668,7 @@
     </row>
     <row r="118" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8656,7 +8676,7 @@
     </row>
     <row r="119" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8664,7 +8684,7 @@
     </row>
     <row r="120" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8672,7 +8692,7 @@
     </row>
     <row r="121" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8680,7 +8700,7 @@
     </row>
     <row r="122" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8688,7 +8708,7 @@
     </row>
     <row r="123" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8696,7 +8716,7 @@
     </row>
     <row r="124" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8704,7 +8724,7 @@
     </row>
     <row r="125" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8712,7 +8732,7 @@
     </row>
     <row r="126" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8720,7 +8740,7 @@
     </row>
     <row r="127" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8751,7 +8771,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -8773,7 +8793,7 @@
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8781,7 +8801,7 @@
     </row>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8789,7 +8809,7 @@
     </row>
     <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8797,7 +8817,7 @@
     </row>
     <row r="6" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8805,7 +8825,7 @@
     </row>
     <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8813,7 +8833,7 @@
     </row>
     <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8821,7 +8841,7 @@
     </row>
     <row r="9" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8829,7 +8849,7 @@
     </row>
     <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8837,7 +8857,7 @@
     </row>
     <row r="11" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8845,7 +8865,7 @@
     </row>
     <row r="12" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8853,7 +8873,7 @@
     </row>
     <row r="13" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8861,7 +8881,7 @@
     </row>
     <row r="14" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8869,7 +8889,7 @@
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8877,7 +8897,7 @@
     </row>
     <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8885,7 +8905,7 @@
     </row>
     <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8893,7 +8913,7 @@
     </row>
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8901,7 +8921,7 @@
     </row>
     <row r="19" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8909,7 +8929,7 @@
     </row>
     <row r="20" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8917,7 +8937,7 @@
     </row>
     <row r="21" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8925,7 +8945,7 @@
     </row>
     <row r="22" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8933,7 +8953,7 @@
     </row>
     <row r="23" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8941,7 +8961,7 @@
     </row>
     <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8949,7 +8969,7 @@
     </row>
     <row r="25" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -8957,7 +8977,7 @@
     </row>
     <row r="26" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8965,7 +8985,7 @@
     </row>
     <row r="27" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8973,7 +8993,7 @@
     </row>
     <row r="28" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8981,7 +9001,7 @@
     </row>
     <row r="29" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8989,7 +9009,7 @@
     </row>
     <row r="30" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8997,7 +9017,7 @@
     </row>
     <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -9005,7 +9025,7 @@
     </row>
     <row r="32" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -9013,7 +9033,7 @@
     </row>
     <row r="33" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9021,7 +9041,7 @@
     </row>
     <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9029,7 +9049,7 @@
     </row>
     <row r="35" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -9037,7 +9057,7 @@
     </row>
     <row r="36" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9045,7 +9065,7 @@
     </row>
     <row r="37" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -9053,7 +9073,7 @@
     </row>
     <row r="38" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9061,7 +9081,7 @@
     </row>
     <row r="39" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9069,7 +9089,7 @@
     </row>
     <row r="40" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9077,7 +9097,7 @@
     </row>
     <row r="41" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -9085,7 +9105,7 @@
     </row>
     <row r="42" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -9093,7 +9113,7 @@
     </row>
     <row r="43" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -9101,7 +9121,7 @@
     </row>
     <row r="44" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -9109,7 +9129,7 @@
     </row>
     <row r="45" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -9117,7 +9137,7 @@
     </row>
     <row r="46" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -9125,7 +9145,7 @@
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -9133,7 +9153,7 @@
     </row>
     <row r="48" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -9141,7 +9161,7 @@
     </row>
     <row r="49" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -9149,7 +9169,7 @@
     </row>
     <row r="50" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -9157,7 +9177,7 @@
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -9165,7 +9185,7 @@
     </row>
     <row r="52" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9173,7 +9193,7 @@
     </row>
     <row r="53" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -9181,7 +9201,7 @@
     </row>
     <row r="54" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -9189,7 +9209,7 @@
     </row>
     <row r="55" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -9197,7 +9217,7 @@
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -9205,7 +9225,7 @@
     </row>
     <row r="57" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -9213,7 +9233,7 @@
     </row>
     <row r="58" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -9221,7 +9241,7 @@
     </row>
     <row r="59" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9229,7 +9249,7 @@
     </row>
     <row r="60" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9237,7 +9257,7 @@
     </row>
     <row r="61" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9245,7 +9265,7 @@
     </row>
     <row r="62" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9253,7 +9273,7 @@
     </row>
     <row r="63" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9261,7 +9281,7 @@
     </row>
     <row r="64" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9269,7 +9289,7 @@
     </row>
     <row r="65" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9277,7 +9297,7 @@
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9285,7 +9305,7 @@
     </row>
     <row r="67" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9293,7 +9313,7 @@
     </row>
     <row r="68" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -9301,7 +9321,7 @@
     </row>
     <row r="69" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -9309,7 +9329,7 @@
     </row>
     <row r="70" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -9317,7 +9337,7 @@
     </row>
     <row r="71" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9325,7 +9345,7 @@
     </row>
     <row r="72" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9333,7 +9353,7 @@
     </row>
     <row r="73" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9341,7 +9361,7 @@
     </row>
     <row r="74" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9349,7 +9369,7 @@
     </row>
     <row r="75" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9357,7 +9377,7 @@
     </row>
     <row r="76" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9365,7 +9385,7 @@
     </row>
     <row r="77" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9373,7 +9393,7 @@
     </row>
     <row r="78" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9381,7 +9401,7 @@
     </row>
     <row r="79" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9389,7 +9409,7 @@
     </row>
     <row r="80" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9397,7 +9417,7 @@
     </row>
     <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9405,7 +9425,7 @@
     </row>
     <row r="82" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9413,7 +9433,7 @@
     </row>
     <row r="83" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9421,7 +9441,7 @@
     </row>
     <row r="84" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9429,7 +9449,7 @@
     </row>
     <row r="85" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9437,7 +9457,7 @@
     </row>
     <row r="86" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9445,7 +9465,7 @@
     </row>
     <row r="87" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
